--- a/data/trans_orig/P0901-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P0901-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>30157</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21228</v>
+        <v>20404</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40803</v>
+        <v>40829</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1104609565619486</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07775464842513247</v>
+        <v>0.07473579378324488</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1494563988988676</v>
+        <v>0.1495524772866562</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -765,19 +765,19 @@
         <v>51873</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38938</v>
+        <v>39871</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>64716</v>
+        <v>65753</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1988687156651222</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1492795362786247</v>
+        <v>0.1528575291478679</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2481072594754353</v>
+        <v>0.252082209526113</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>78</v>
@@ -786,19 +786,19 @@
         <v>82029</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>65633</v>
+        <v>65252</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>101130</v>
+        <v>98810</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1536569782443975</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1229427848705994</v>
+        <v>0.1222289304359336</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1894368701461024</v>
+        <v>0.185090538340327</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>242853</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>232207</v>
+        <v>232181</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>251782</v>
+        <v>252606</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8895390434380513</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8505436011011324</v>
+        <v>0.850447522713344</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9222453515748674</v>
+        <v>0.9252642062167552</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>197</v>
@@ -836,19 +836,19 @@
         <v>208965</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>196122</v>
+        <v>195085</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>221900</v>
+        <v>220967</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8011312843348779</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7518927405245648</v>
+        <v>0.7479177904738872</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8507204637213759</v>
+        <v>0.8471424708521328</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>438</v>
@@ -857,19 +857,19 @@
         <v>451819</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>432718</v>
+        <v>435038</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>468215</v>
+        <v>468596</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8463430217556025</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8105631298538977</v>
+        <v>0.8149094616596733</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8770572151294004</v>
+        <v>0.8777710695640665</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>46887</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35250</v>
+        <v>34447</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61816</v>
+        <v>61567</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09509115884055587</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07149051354002164</v>
+        <v>0.06986062394845145</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.125368626394185</v>
+        <v>0.1248627724609002</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>90</v>
@@ -982,19 +982,19 @@
         <v>90890</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>73706</v>
+        <v>75602</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>109710</v>
+        <v>109741</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1803549331355311</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1462571512308366</v>
+        <v>0.1500196680620692</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2177007149704339</v>
+        <v>0.2177622099083378</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>133</v>
@@ -1003,19 +1003,19 @@
         <v>137777</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>117605</v>
+        <v>117394</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>160588</v>
+        <v>159449</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1381880066566302</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1179564549287406</v>
+        <v>0.1177445105402197</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.161067081253747</v>
+        <v>0.1599253471340532</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>446188</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>431259</v>
+        <v>431508</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>457825</v>
+        <v>458628</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9049088411594441</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.874631373605815</v>
+        <v>0.8751372275390998</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9285094864599783</v>
+        <v>0.9301393760515486</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>409</v>
@@ -1053,19 +1053,19 @@
         <v>413059</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>394239</v>
+        <v>394208</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>430243</v>
+        <v>428347</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8196450668644688</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7822992850295665</v>
+        <v>0.7822377900916623</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.853742848769164</v>
+        <v>0.849980331937931</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>831</v>
@@ -1074,19 +1074,19 @@
         <v>859247</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>836436</v>
+        <v>837575</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>879419</v>
+        <v>879630</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8618119933433699</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.838932918746253</v>
+        <v>0.8400746528659468</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8820435450712595</v>
+        <v>0.8822554894597804</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>19567</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11804</v>
+        <v>12380</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30102</v>
+        <v>30978</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06136792085576444</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03702158191876038</v>
+        <v>0.03882663651644621</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09441060029240277</v>
+        <v>0.09715539347068768</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -1199,19 +1199,19 @@
         <v>46086</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34363</v>
+        <v>35274</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59255</v>
+        <v>59898</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1373998550221354</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1024506516252471</v>
+        <v>0.1051669774308219</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1766621760520749</v>
+        <v>0.1785811269402957</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>64</v>
@@ -1220,19 +1220,19 @@
         <v>65652</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51116</v>
+        <v>52319</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>81252</v>
+        <v>82128</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1003464684972382</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07812807557054953</v>
+        <v>0.07996724350507137</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1241892973486223</v>
+        <v>0.1255289876446951</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>299279</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>288744</v>
+        <v>287868</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>307042</v>
+        <v>306466</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9386320791442355</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9055893997075979</v>
+        <v>0.9028446065293124</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9629784180812399</v>
+        <v>0.9611733634835539</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>290</v>
@@ -1270,19 +1270,19 @@
         <v>289326</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>276157</v>
+        <v>275514</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>301049</v>
+        <v>300138</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8626001449778646</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8233378239479257</v>
+        <v>0.8214188730597043</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8975493483747536</v>
+        <v>0.8948330225691782</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>581</v>
@@ -1291,19 +1291,19 @@
         <v>588606</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>573006</v>
+        <v>572130</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>603142</v>
+        <v>601939</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8996535315027618</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8758107026513777</v>
+        <v>0.8744710123553049</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9218719244294505</v>
+        <v>0.9200327564949287</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>18418</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10925</v>
+        <v>11446</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27370</v>
+        <v>28823</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05135014708914637</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03046075429748914</v>
+        <v>0.03191281499712281</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07631055003654715</v>
+        <v>0.08035997637793546</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -1416,19 +1416,19 @@
         <v>60370</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>47358</v>
+        <v>47343</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74748</v>
+        <v>75807</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1625239328921216</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1274936775406939</v>
+        <v>0.1274533784505549</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2012293135534993</v>
+        <v>0.20407947987509</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>79</v>
@@ -1437,19 +1437,19 @@
         <v>78788</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61553</v>
+        <v>63916</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>95997</v>
+        <v>96805</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1079103914506837</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08430458912600718</v>
+        <v>0.08754122618638403</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1314804859594496</v>
+        <v>0.1325858576587922</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>340253</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>331301</v>
+        <v>329848</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>347746</v>
+        <v>347225</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9486498529108537</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9236894499634524</v>
+        <v>0.9196400236220645</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9695392457025107</v>
+        <v>0.968087185002877</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>323</v>
@@ -1487,19 +1487,19 @@
         <v>311086</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>296708</v>
+        <v>295649</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>324098</v>
+        <v>324113</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8374760671078785</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7987706864465005</v>
+        <v>0.7959205201249103</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.872506322459306</v>
+        <v>0.8725466215494452</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>667</v>
@@ -1508,19 +1508,19 @@
         <v>651339</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>634130</v>
+        <v>633322</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>668574</v>
+        <v>666211</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8920896085493163</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8685195140405504</v>
+        <v>0.8674141423412081</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9156954108739924</v>
+        <v>0.9124587738136162</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>15417</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9216</v>
+        <v>8751</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24208</v>
+        <v>24099</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07583171628371481</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0453308560659141</v>
+        <v>0.0430450655180831</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1190681869610215</v>
+        <v>0.1185362152491597</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -1633,19 +1633,19 @@
         <v>25264</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16649</v>
+        <v>16750</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36662</v>
+        <v>36787</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1216577005120863</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08017363801260134</v>
+        <v>0.0806575728351812</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1765406674936812</v>
+        <v>0.1771427707067205</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -1654,19 +1654,19 @@
         <v>40682</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28429</v>
+        <v>30151</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>53788</v>
+        <v>54421</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09898778726501013</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06917348974648913</v>
+        <v>0.07336407142936036</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1308794712151678</v>
+        <v>0.1324180939908866</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>187891</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>179100</v>
+        <v>179209</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>194092</v>
+        <v>194557</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9241682837162852</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8809318130389783</v>
+        <v>0.8814637847508393</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9546691439340858</v>
+        <v>0.9569549344819169</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>175</v>
@@ -1704,19 +1704,19 @@
         <v>182404</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>171006</v>
+        <v>170881</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>191019</v>
+        <v>190918</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8783422994879136</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8234593325063191</v>
+        <v>0.8228572292932792</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.919826361987399</v>
+        <v>0.9193424271648186</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>364</v>
@@ -1725,19 +1725,19 @@
         <v>370294</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>357188</v>
+        <v>356555</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>382547</v>
+        <v>380825</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9010122127349899</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8691205287848323</v>
+        <v>0.8675819060091138</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.930826510253511</v>
+        <v>0.9266359285706398</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>26784</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18166</v>
+        <v>17318</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38808</v>
+        <v>38007</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09890285745545675</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06707895988820112</v>
+        <v>0.06394716763873409</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1433020060869619</v>
+        <v>0.1403444722306566</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>45</v>
@@ -1850,19 +1850,19 @@
         <v>47525</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34777</v>
+        <v>35983</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>59573</v>
+        <v>59658</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1708634862430253</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1250318125828233</v>
+        <v>0.1293671271423106</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2141798319906372</v>
+        <v>0.2144862660208038</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>72</v>
@@ -1871,19 +1871,19 @@
         <v>74309</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>59135</v>
+        <v>61098</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>91995</v>
+        <v>91909</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1353638004976661</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.107723532833764</v>
+        <v>0.1112985014767597</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1675820677071796</v>
+        <v>0.1674261693272674</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>244027</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>232003</v>
+        <v>232804</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>252645</v>
+        <v>253493</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9010971425445432</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8566979939130381</v>
+        <v>0.8596555277693442</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9329210401117989</v>
+        <v>0.9360528323612665</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>225</v>
@@ -1921,19 +1921,19 @@
         <v>230619</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>218571</v>
+        <v>218486</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>243367</v>
+        <v>242161</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8291365137569747</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7858201680093628</v>
+        <v>0.7855137339791962</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8749681874171766</v>
+        <v>0.8706328728576893</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>464</v>
@@ -1942,19 +1942,19 @@
         <v>474646</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>456960</v>
+        <v>457046</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>489820</v>
+        <v>487857</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8646361995023339</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8324179322928204</v>
+        <v>0.8325738306727323</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8922764671662358</v>
+        <v>0.8887014985232402</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>58951</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>46029</v>
+        <v>45567</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>76455</v>
+        <v>74731</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09585082024443604</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07484112776103208</v>
+        <v>0.07409019526711511</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1243109603262423</v>
+        <v>0.121508430647914</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>90</v>
@@ -2067,19 +2067,19 @@
         <v>89153</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>73315</v>
+        <v>72787</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>107326</v>
+        <v>107990</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1396910391029769</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1148749918311645</v>
+        <v>0.1140463149523839</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1681644295866539</v>
+        <v>0.1692049980179223</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>151</v>
@@ -2088,19 +2088,19 @@
         <v>148104</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>126222</v>
+        <v>124537</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>172795</v>
+        <v>170663</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.118176573829718</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1007157089663306</v>
+        <v>0.09937148000053578</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1378775797541328</v>
+        <v>0.1361765593229634</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>556076</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>538572</v>
+        <v>540296</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>568998</v>
+        <v>569460</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.904149179755564</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8756890396737578</v>
+        <v>0.8784915693520859</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9251588722389681</v>
+        <v>0.925909804732885</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>531</v>
@@ -2138,19 +2138,19 @@
         <v>549066</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>530893</v>
+        <v>530229</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>564904</v>
+        <v>565432</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.860308960897023</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.831835570413346</v>
+        <v>0.8307950019820777</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8851250081688354</v>
+        <v>0.885953685047616</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1068</v>
@@ -2159,19 +2159,19 @@
         <v>1105142</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1080451</v>
+        <v>1082583</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1127024</v>
+        <v>1128709</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.881823426170282</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8621224202458673</v>
+        <v>0.8638234406770365</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8992842910336695</v>
+        <v>0.9006285199994641</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>80237</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>64249</v>
+        <v>64819</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>97675</v>
+        <v>98018</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1078747860743663</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08637935123056766</v>
+        <v>0.08714667633897241</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1313201373596389</v>
+        <v>0.1317806880218965</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>128</v>
@@ -2284,19 +2284,19 @@
         <v>140973</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>118152</v>
+        <v>121662</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>163691</v>
+        <v>165929</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1799243735482223</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1507984554504829</v>
+        <v>0.1552782888722243</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2089194805119404</v>
+        <v>0.2117762690299321</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>213</v>
@@ -2305,19 +2305,19 @@
         <v>221209</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>196381</v>
+        <v>194468</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>249246</v>
+        <v>250050</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1448363659962051</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1285798391162651</v>
+        <v>0.127327785031067</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1631934151642434</v>
+        <v>0.1637198850776144</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>663558</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>646120</v>
+        <v>645777</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>679546</v>
+        <v>678976</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8921252139256337</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8686798626403611</v>
+        <v>0.8682193119781038</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9136206487694327</v>
+        <v>0.9128533236610277</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>617</v>
@@ -2355,19 +2355,19 @@
         <v>642538</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>619820</v>
+        <v>617582</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>665359</v>
+        <v>661849</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8200756264517777</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7910805194880596</v>
+        <v>0.7882237309700678</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8492015445495171</v>
+        <v>0.8447217111277757</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1268</v>
@@ -2376,19 +2376,19 @@
         <v>1306097</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1278060</v>
+        <v>1277256</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1330925</v>
+        <v>1332838</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8551636340037949</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8368065848357565</v>
+        <v>0.8362801149223856</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8714201608837355</v>
+        <v>0.8726722149689331</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>296417</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>263608</v>
+        <v>259917</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>332458</v>
+        <v>328866</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09046653281879337</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08045319006463482</v>
+        <v>0.07932654752445274</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1014660526857801</v>
+        <v>0.1003699306674949</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>530</v>
@@ -2501,19 +2501,19 @@
         <v>552134</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>509324</v>
+        <v>512828</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>595806</v>
+        <v>599841</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1633919315485758</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1507234917242171</v>
+        <v>0.1517604175701385</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1763159697134691</v>
+        <v>0.1775098810229274</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>830</v>
@@ -2522,19 +2522,19 @@
         <v>848551</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>793968</v>
+        <v>790056</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>902473</v>
+        <v>902454</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.127491610089047</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1192906726415923</v>
+        <v>0.1187029444064466</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1355932162914225</v>
+        <v>0.1355903025343252</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>2980126</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2944085</v>
+        <v>2947677</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3012935</v>
+        <v>3016626</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9095334671812066</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8985339473142198</v>
+        <v>0.8996300693325051</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9195468099353652</v>
+        <v>0.9206734524755471</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2767</v>
@@ -2572,19 +2572,19 @@
         <v>2827063</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2783391</v>
+        <v>2779356</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2869873</v>
+        <v>2866369</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8366080684514242</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8236840302865298</v>
+        <v>0.8224901189770721</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8492765082757826</v>
+        <v>0.8482395824298613</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5681</v>
@@ -2593,19 +2593,19 @@
         <v>5807190</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5753268</v>
+        <v>5753287</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5861773</v>
+        <v>5865685</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.872508389910953</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8644067837085774</v>
+        <v>0.8644096974656748</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8807093273584073</v>
+        <v>0.8812970555935533</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>40940</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30306</v>
+        <v>30146</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54146</v>
+        <v>55032</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.138901940347051</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1028237079816554</v>
+        <v>0.1022822002936961</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1837080221851106</v>
+        <v>0.186714456048486</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>72</v>
@@ -2962,19 +2962,19 @@
         <v>79346</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64647</v>
+        <v>64193</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>96595</v>
+        <v>96921</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.276230441070391</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2250600420581937</v>
+        <v>0.2234778618338824</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3362825827943017</v>
+        <v>0.3374151315546313</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>113</v>
@@ -2983,19 +2983,19 @@
         <v>120285</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>100063</v>
+        <v>99465</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>142010</v>
+        <v>140287</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2066821386091478</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1719354312005109</v>
+        <v>0.1709073859240542</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2440105325732328</v>
+        <v>0.2410506640469273</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>253798</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>240592</v>
+        <v>239706</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>264432</v>
+        <v>264592</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8610980596529491</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8162919778148896</v>
+        <v>0.813285543951514</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8971762920183447</v>
+        <v>0.8977177997063041</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>184</v>
@@ -3033,19 +3033,19 @@
         <v>207899</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>190650</v>
+        <v>190324</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>222598</v>
+        <v>223052</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7237695589296089</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6637174172056974</v>
+        <v>0.6625848684453688</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7749399579418063</v>
+        <v>0.7765221381661176</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>425</v>
@@ -3054,19 +3054,19 @@
         <v>461698</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>439973</v>
+        <v>441696</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>481920</v>
+        <v>482518</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7933178613908523</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7559894674267673</v>
+        <v>0.7589493359530727</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8280645687994891</v>
+        <v>0.8290926140759457</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>55636</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>42123</v>
+        <v>42033</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74287</v>
+        <v>76526</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1100563275130847</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0833257353378228</v>
+        <v>0.08314780676661047</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.146948903916492</v>
+        <v>0.1513792500185015</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>90</v>
@@ -3179,19 +3179,19 @@
         <v>99391</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>81706</v>
+        <v>82680</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>120169</v>
+        <v>118983</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1897618097520271</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1559981277093223</v>
+        <v>0.1578571412644827</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2294339075783165</v>
+        <v>0.227169499697374</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>135</v>
@@ -3200,19 +3200,19 @@
         <v>155027</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>132627</v>
+        <v>131894</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>179917</v>
+        <v>180746</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1506152084279993</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.128853111085066</v>
+        <v>0.1281401881609129</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1747970209070174</v>
+        <v>0.1756018502613874</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>449891</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>431240</v>
+        <v>429001</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>463404</v>
+        <v>463494</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8899436724869153</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8530510960835083</v>
+        <v>0.8486207499814989</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9166742646621774</v>
+        <v>0.9168521932333896</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>390</v>
@@ -3250,19 +3250,19 @@
         <v>424374</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>403596</v>
+        <v>404782</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>442059</v>
+        <v>441085</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8102381902479729</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7705660924216835</v>
+        <v>0.7728305003026257</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8440018722906776</v>
+        <v>0.8421428587355172</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>817</v>
@@ -3271,19 +3271,19 @@
         <v>874265</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>849375</v>
+        <v>848546</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>896665</v>
+        <v>897398</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8493847915720008</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8252029790929826</v>
+        <v>0.8243981497386125</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8711468889149337</v>
+        <v>0.8718598118390869</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>39817</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28106</v>
+        <v>29007</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53195</v>
+        <v>56079</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1228743813867926</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08673560188878789</v>
+        <v>0.08951546050166548</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1641578336754002</v>
+        <v>0.1730578482302992</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -3396,19 +3396,19 @@
         <v>67053</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>53228</v>
+        <v>51957</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>84877</v>
+        <v>81769</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1966242114199996</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1560844701245804</v>
+        <v>0.1523578954797455</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2488916786673282</v>
+        <v>0.2397775763509347</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>97</v>
@@ -3417,19 +3417,19 @@
         <v>106870</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>87185</v>
+        <v>87340</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>126467</v>
+        <v>126564</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1606904286688761</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1310918945832927</v>
+        <v>0.1313260624807608</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1901573091228258</v>
+        <v>0.1903025593743252</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>284229</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>270851</v>
+        <v>267967</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>295940</v>
+        <v>295039</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8771256186132075</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8358421663245996</v>
+        <v>0.8269421517697003</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9132643981112121</v>
+        <v>0.9104845394983345</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>256</v>
@@ -3467,19 +3467,19 @@
         <v>273967</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>256143</v>
+        <v>259251</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>287792</v>
+        <v>289063</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8033757885800004</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7511083213326714</v>
+        <v>0.7602224236490652</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8439155298754194</v>
+        <v>0.8476421045202545</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>539</v>
@@ -3488,19 +3488,19 @@
         <v>558196</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>538599</v>
+        <v>538502</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>577881</v>
+        <v>577726</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8393095713311238</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8098426908771743</v>
+        <v>0.8096974406256748</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8689081054167074</v>
+        <v>0.8686739375192392</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>59591</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46427</v>
+        <v>45542</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>74994</v>
+        <v>74385</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1593414860824642</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.124141964604072</v>
+        <v>0.1217752893090469</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.200528972328808</v>
+        <v>0.1989008282142409</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>124</v>
@@ -3613,19 +3613,19 @@
         <v>127915</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>109032</v>
+        <v>109614</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>146377</v>
+        <v>147106</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3288715141958841</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2803234888664143</v>
+        <v>0.2818205726802221</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3763375322910002</v>
+        <v>0.3782121981912168</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>180</v>
@@ -3634,19 +3634,19 @@
         <v>187506</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>165317</v>
+        <v>163758</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>213060</v>
+        <v>213015</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2457696045281667</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2166864609285132</v>
+        <v>0.2146421777313889</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2792644884763408</v>
+        <v>0.2792055739422279</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>314391</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>298988</v>
+        <v>299597</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>327555</v>
+        <v>328440</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8406585139175359</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.799471027671192</v>
+        <v>0.8010991717857594</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.875858035395928</v>
+        <v>0.8782247106909532</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>247</v>
@@ -3684,19 +3684,19 @@
         <v>261036</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>242574</v>
+        <v>241845</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>279919</v>
+        <v>279337</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6711284858041159</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6236624677089998</v>
+        <v>0.6217878018087833</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7196765111335862</v>
+        <v>0.718179427319778</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>535</v>
@@ -3705,19 +3705,19 @@
         <v>575427</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>549873</v>
+        <v>549918</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>597616</v>
+        <v>599175</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7542303954718332</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7207355115236591</v>
+        <v>0.7207944260577721</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7833135390714867</v>
+        <v>0.7853578222686112</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>26695</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17394</v>
+        <v>17654</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37626</v>
+        <v>37755</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1255545456207403</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08180917899181149</v>
+        <v>0.08303355005786564</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.176964596549004</v>
+        <v>0.1775714244652008</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -3830,19 +3830,19 @@
         <v>54769</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42224</v>
+        <v>43066</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>68929</v>
+        <v>68330</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2494151164417441</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.192283287636683</v>
+        <v>0.196120352216772</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3138986676254009</v>
+        <v>0.3111689271354725</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>77</v>
@@ -3851,19 +3851,19 @@
         <v>81464</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>66681</v>
+        <v>66458</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>99051</v>
+        <v>99013</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1884839712687296</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1542798809207396</v>
+        <v>0.1537627217076398</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2291742502005014</v>
+        <v>0.2290852505661327</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>185923</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>174992</v>
+        <v>174863</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>195224</v>
+        <v>194964</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8744454543792597</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8230354034509956</v>
+        <v>0.8224285755347991</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9181908210081882</v>
+        <v>0.9169664499421343</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>160</v>
@@ -3901,19 +3901,19 @@
         <v>164822</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>150662</v>
+        <v>151261</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>177367</v>
+        <v>176525</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7505848835582559</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6861013323745991</v>
+        <v>0.6888310728645277</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8077167123633174</v>
+        <v>0.8038796477832281</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>331</v>
@@ -3922,19 +3922,19 @@
         <v>350745</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>333158</v>
+        <v>333196</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>365528</v>
+        <v>365751</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8115160287312705</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7708257497994988</v>
+        <v>0.7709147494338673</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8457201190792605</v>
+        <v>0.8462372782923601</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>37418</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26246</v>
+        <v>27834</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49962</v>
+        <v>50597</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1365728167935803</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09579588724002973</v>
+        <v>0.1015914025444917</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1823546361917177</v>
+        <v>0.1846737267791986</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>47</v>
@@ -4047,19 +4047,19 @@
         <v>48657</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37147</v>
+        <v>36805</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>63307</v>
+        <v>61501</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1737559497177231</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1326537788052291</v>
+        <v>0.1314316383822858</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2260723391527563</v>
+        <v>0.2196231315141034</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>83</v>
@@ -4068,19 +4068,19 @@
         <v>86075</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>70292</v>
+        <v>69584</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>106169</v>
+        <v>103351</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1553674093179653</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1268780865160468</v>
+        <v>0.1256006126598674</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1916375167006664</v>
+        <v>0.186550668471938</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>236563</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>224019</v>
+        <v>223384</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>247735</v>
+        <v>246147</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8634271832064196</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8176453638082822</v>
+        <v>0.8153262732208016</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9042041127599704</v>
+        <v>0.8984085974555084</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>222</v>
@@ -4118,19 +4118,19 @@
         <v>231374</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>216724</v>
+        <v>218530</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>242884</v>
+        <v>243226</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8262440502822769</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7739276608472432</v>
+        <v>0.7803768684858964</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8673462211947709</v>
+        <v>0.8685683616177141</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>447</v>
@@ -4139,19 +4139,19 @@
         <v>467937</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>447843</v>
+        <v>450661</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>483720</v>
+        <v>484428</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8446325906820347</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8083624832993336</v>
+        <v>0.8134493315280621</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8731219134839533</v>
+        <v>0.8743993873401327</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>61676</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>46661</v>
+        <v>47286</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>78127</v>
+        <v>79199</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09305588675784243</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07040096670408652</v>
+        <v>0.07134451082462816</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1178757996621632</v>
+        <v>0.1194943687199416</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>100</v>
@@ -4264,19 +4264,19 @@
         <v>110696</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>93795</v>
+        <v>89959</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>131619</v>
+        <v>129839</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1595374451284641</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1351795858722444</v>
+        <v>0.1296517760488806</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1896934295311638</v>
+        <v>0.1871274471734477</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>158</v>
@@ -4285,19 +4285,19 @@
         <v>172372</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>149413</v>
+        <v>148908</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>201365</v>
+        <v>199446</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1270578271640759</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1101342461822409</v>
+        <v>0.1097621455582912</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1484289034072754</v>
+        <v>0.1470146937857281</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>601112</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>584661</v>
+        <v>583589</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>616127</v>
+        <v>615502</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9069441132421575</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8821242003378368</v>
+        <v>0.8805056312800585</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9295990332959134</v>
+        <v>0.9286554891753719</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>536</v>
@@ -4335,19 +4335,19 @@
         <v>583157</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>562234</v>
+        <v>564014</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>600058</v>
+        <v>603894</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.840462554871536</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8103065704688365</v>
+        <v>0.8128725528265524</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8648204141277556</v>
+        <v>0.8703482239511195</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1096</v>
@@ -4356,19 +4356,19 @@
         <v>1184269</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1155276</v>
+        <v>1157195</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1207228</v>
+        <v>1207733</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8729421728359241</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8515710965927243</v>
+        <v>0.8529853062142718</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8898657538177591</v>
+        <v>0.8902378544417087</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>89551</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>70461</v>
+        <v>72489</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>109679</v>
+        <v>113049</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1149414978972062</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09043900925416676</v>
+        <v>0.0930416901205669</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1407766423641672</v>
+        <v>0.1451022845338555</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>141</v>
@@ -4481,19 +4481,19 @@
         <v>155089</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>133546</v>
+        <v>129643</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>181181</v>
+        <v>178049</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1882482726020875</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1620996020002268</v>
+        <v>0.1573623916123774</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2199193192822714</v>
+        <v>0.2161179807012395</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>219</v>
@@ -4502,19 +4502,19 @@
         <v>244640</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>215084</v>
+        <v>215784</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>277300</v>
+        <v>276216</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.152618255424323</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1341801717485469</v>
+        <v>0.13461669223154</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1729935396341627</v>
+        <v>0.1723168777729873</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>689547</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>669419</v>
+        <v>666049</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>708637</v>
+        <v>706609</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8850585021027938</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8592233576358325</v>
+        <v>0.8548977154661446</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9095609907458331</v>
+        <v>0.9069583098794332</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>616</v>
@@ -4552,19 +4552,19 @@
         <v>668764</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>642672</v>
+        <v>645804</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>690307</v>
+        <v>694210</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8117517273979126</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7800806807177283</v>
+        <v>0.7838820192987606</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8379003979997729</v>
+        <v>0.8426376083876227</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1255</v>
@@ -4573,19 +4573,19 @@
         <v>1358311</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1325651</v>
+        <v>1326735</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1387867</v>
+        <v>1387167</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8473817445756769</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8270064603658372</v>
+        <v>0.8276831222270128</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8658198282514532</v>
+        <v>0.8653833077684605</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>411325</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>369597</v>
+        <v>372897</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>451926</v>
+        <v>450122</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1200324195083661</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1078553968080006</v>
+        <v>0.1088186411950871</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1318808105064159</v>
+        <v>0.1313541299683496</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>687</v>
@@ -4698,19 +4698,19 @@
         <v>742915</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>700032</v>
+        <v>692608</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>798929</v>
+        <v>794393</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2087831347405051</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1967315831844514</v>
+        <v>0.1946451627217343</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2245248433481863</v>
+        <v>0.2232502212352256</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1062</v>
@@ -4719,19 +4719,19 @@
         <v>1154239</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1090623</v>
+        <v>1092167</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1224813</v>
+        <v>1221679</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1652433716024777</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1561358389762603</v>
+        <v>0.1563569777914434</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1753468811074753</v>
+        <v>0.1748981137437628</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3015454</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2974853</v>
+        <v>2976657</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3057182</v>
+        <v>3053882</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8799675804916339</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8681191894935841</v>
+        <v>0.8686458700316504</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8921446031919993</v>
+        <v>0.8911813588049129</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2611</v>
@@ -4769,19 +4769,19 @@
         <v>2815394</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2759380</v>
+        <v>2763916</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2858277</v>
+        <v>2865701</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.791216865259495</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.775475156651814</v>
+        <v>0.7767497787647741</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8032684168155488</v>
+        <v>0.8053548372782656</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5445</v>
@@ -4790,19 +4790,19 @@
         <v>5830849</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5760275</v>
+        <v>5763409</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5894465</v>
+        <v>5892921</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8347566283975223</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8246531188925247</v>
+        <v>0.8251018862562373</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8438641610237397</v>
+        <v>0.8436430222085567</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>36513</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25887</v>
+        <v>26141</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49242</v>
+        <v>50360</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1242936089843577</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08812372719775476</v>
+        <v>0.08898584253044137</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1676275621209683</v>
+        <v>0.1714304532012478</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>68</v>
@@ -5159,19 +5159,19 @@
         <v>75818</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>62160</v>
+        <v>61233</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>91705</v>
+        <v>91618</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2626162192011557</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2153062975077216</v>
+        <v>0.212098196849795</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3176459336957094</v>
+        <v>0.3173425342327396</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>102</v>
@@ -5180,19 +5180,19 @@
         <v>112331</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>91685</v>
+        <v>93297</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>133692</v>
+        <v>132324</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1928543311413775</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1574091937687004</v>
+        <v>0.1601767650026063</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2295290906321444</v>
+        <v>0.2271796225533129</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>257248</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>244519</v>
+        <v>243401</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>267874</v>
+        <v>267620</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8757063910156423</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8323724378790316</v>
+        <v>0.8285695467987523</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9118762728022449</v>
+        <v>0.9110141574695586</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>209</v>
@@ -5230,19 +5230,19 @@
         <v>212885</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>196998</v>
+        <v>197085</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>226543</v>
+        <v>227470</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7373837807988444</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6823540663042904</v>
+        <v>0.6826574657672603</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7846937024922783</v>
+        <v>0.787901803150205</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>441</v>
@@ -5251,19 +5251,19 @@
         <v>470133</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>448772</v>
+        <v>450140</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>490779</v>
+        <v>489167</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8071456688586225</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7704709093678554</v>
+        <v>0.7728203774466872</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8425908062312997</v>
+        <v>0.8398232349973938</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>42702</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31933</v>
+        <v>30836</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>57025</v>
+        <v>56941</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08496564547821919</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06353823143794265</v>
+        <v>0.06135516264984585</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1134661653305192</v>
+        <v>0.1132985084947314</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>74</v>
@@ -5376,19 +5376,19 @@
         <v>86560</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>68993</v>
+        <v>69557</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>105109</v>
+        <v>105866</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1654807660161674</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1318970311890623</v>
+        <v>0.132973980500676</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2009407667652479</v>
+        <v>0.2023882184819641</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>116</v>
@@ -5397,19 +5397,19 @@
         <v>129262</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>108583</v>
+        <v>109122</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>152417</v>
+        <v>153044</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1260281784114045</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1058666053671086</v>
+        <v>0.106391953302717</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1486041320593456</v>
+        <v>0.1492153216615227</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>459873</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>445550</v>
+        <v>445634</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>470642</v>
+        <v>471739</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9150343545217808</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8865338346694809</v>
+        <v>0.8867014915052691</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9364617685620578</v>
+        <v>0.9386448373501544</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>410</v>
@@ -5447,19 +5447,19 @@
         <v>436524</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>417975</v>
+        <v>417218</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>454091</v>
+        <v>453527</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8345192339838327</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.799059233234752</v>
+        <v>0.7976117815180358</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8681029688109376</v>
+        <v>0.8670260194993239</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>843</v>
@@ -5468,19 +5468,19 @@
         <v>896397</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>873242</v>
+        <v>872615</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>917076</v>
+        <v>916537</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8739718215885954</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8513958679406544</v>
+        <v>0.8507846783384772</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8941333946328914</v>
+        <v>0.893608046697283</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>27498</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18383</v>
+        <v>19022</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39072</v>
+        <v>37581</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08631737425975923</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05770416800550743</v>
+        <v>0.05971133937227721</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1226495768780826</v>
+        <v>0.1179695763984737</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -5593,19 +5593,19 @@
         <v>41110</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29487</v>
+        <v>29355</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55819</v>
+        <v>54762</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1222384926660328</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08767788573836797</v>
+        <v>0.08728597452485772</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1659742121009004</v>
+        <v>0.1628337074425282</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>65</v>
@@ -5614,19 +5614,19 @@
         <v>68608</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53820</v>
+        <v>54953</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>86455</v>
+        <v>85394</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1047645801179925</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08218414947477765</v>
+        <v>0.08391391675255794</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1320171520207533</v>
+        <v>0.1303969580068825</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>291067</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>279493</v>
+        <v>280984</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>300182</v>
+        <v>299543</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9136826257402407</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8773504231219171</v>
+        <v>0.8820304236015262</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9422958319944919</v>
+        <v>0.9402886606277226</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>297</v>
@@ -5664,19 +5664,19 @@
         <v>295199</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>280490</v>
+        <v>281547</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>306822</v>
+        <v>306954</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8777615073339672</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8340257878990999</v>
+        <v>0.837166292557472</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9123221142616321</v>
+        <v>0.9127140254751426</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>602</v>
@@ -5685,19 +5685,19 @@
         <v>586266</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>568419</v>
+        <v>569480</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>601054</v>
+        <v>599921</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8952354198820075</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8679828479792467</v>
+        <v>0.8696030419931177</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9178158505252226</v>
+        <v>0.9160860832474421</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>62944</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>49209</v>
+        <v>48958</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>78957</v>
+        <v>80939</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1701367017674225</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1330090833592504</v>
+        <v>0.1323321454192823</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2134171773040337</v>
+        <v>0.2187748247104986</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>110</v>
@@ -5810,19 +5810,19 @@
         <v>125882</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>106326</v>
+        <v>109437</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>144026</v>
+        <v>146751</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3250396264661638</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2745438466971981</v>
+        <v>0.282576024641125</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3718888859257468</v>
+        <v>0.3789235448674399</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>170</v>
@@ -5831,19 +5831,19 @@
         <v>188827</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>164149</v>
+        <v>165203</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>215281</v>
+        <v>217990</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2493595571823619</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2167702368652953</v>
+        <v>0.2181624252969755</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2842948906067166</v>
+        <v>0.2878711247031323</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>307020</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>291007</v>
+        <v>289025</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>320755</v>
+        <v>321006</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8298632982325775</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7865828226959664</v>
+        <v>0.7812251752895011</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8669909166407497</v>
+        <v>0.8676678545807176</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>248</v>
@@ -5881,19 +5881,19 @@
         <v>261401</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>243257</v>
+        <v>240532</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>280957</v>
+        <v>277846</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6749603735338362</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6281111140742532</v>
+        <v>0.62107645513256</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.725456153302802</v>
+        <v>0.717423975358875</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>542</v>
@@ -5902,19 +5902,19 @@
         <v>568420</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>541966</v>
+        <v>539257</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>593098</v>
+        <v>592044</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7506404428176381</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7157051093932831</v>
+        <v>0.7121288752968672</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7832297631347043</v>
+        <v>0.7818375747030245</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>17363</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10686</v>
+        <v>10229</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27071</v>
+        <v>27685</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08220189109616431</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05059330902154588</v>
+        <v>0.04842613321522509</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1281636830461863</v>
+        <v>0.1310694413332224</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -6027,19 +6027,19 @@
         <v>29183</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20041</v>
+        <v>20206</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40927</v>
+        <v>41178</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1335082106836694</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09168422867879353</v>
+        <v>0.09243907260100742</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1872352779157545</v>
+        <v>0.1883817287767217</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>46</v>
@@ -6048,19 +6048,19 @@
         <v>46546</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>34638</v>
+        <v>35519</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60001</v>
+        <v>62134</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1082946918935143</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08059000452026607</v>
+        <v>0.08263963546147921</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1395983821724865</v>
+        <v>0.1445610728517399</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>193858</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>184150</v>
+        <v>183536</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>200535</v>
+        <v>200992</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9177981089038357</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8718363169538137</v>
+        <v>0.8689305586667774</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9494066909784541</v>
+        <v>0.9515738667847748</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>195</v>
@@ -6098,19 +6098,19 @@
         <v>189404</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>177660</v>
+        <v>177409</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>198546</v>
+        <v>198381</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8664917893163306</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8127647220842455</v>
+        <v>0.8116182712232782</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9083157713212064</v>
+        <v>0.9075609273989926</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>389</v>
@@ -6119,19 +6119,19 @@
         <v>383262</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>369807</v>
+        <v>367674</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>395170</v>
+        <v>394289</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8917053081064857</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8604016178275132</v>
+        <v>0.8554389271482596</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9194099954797337</v>
+        <v>0.9173603645385207</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>43702</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>32117</v>
+        <v>32756</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>56511</v>
+        <v>56715</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1660891091380324</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1220606968702706</v>
+        <v>0.1244895064842391</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2147703671584402</v>
+        <v>0.2155468416109327</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>58</v>
@@ -6244,19 +6244,19 @@
         <v>66479</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52580</v>
+        <v>51818</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>82161</v>
+        <v>82168</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2434090465186673</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1925213763120031</v>
+        <v>0.189727838660089</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3008299346266469</v>
+        <v>0.3008544954597167</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>103</v>
@@ -6265,19 +6265,19 @@
         <v>110181</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>91746</v>
+        <v>91051</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>129683</v>
+        <v>130127</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2054694491111177</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1710918990639206</v>
+        <v>0.1697966101517122</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2418376709210875</v>
+        <v>0.2426671520007088</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>219421</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>206612</v>
+        <v>206408</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>231006</v>
+        <v>230367</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8339108908619676</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7852296328415596</v>
+        <v>0.7844531583890672</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8779393031297293</v>
+        <v>0.8755104935157608</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>205</v>
@@ -6315,19 +6315,19 @@
         <v>206636</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>190954</v>
+        <v>190947</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>220535</v>
+        <v>221297</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7565909534813327</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6991700653733528</v>
+        <v>0.6991455045402831</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8074786236879968</v>
+        <v>0.8102721613399109</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>419</v>
@@ -6336,19 +6336,19 @@
         <v>426057</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>406555</v>
+        <v>406111</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>444492</v>
+        <v>445187</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7945305508888824</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7581623290789127</v>
+        <v>0.7573328479992921</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8289081009360795</v>
+        <v>0.8302033898482881</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>71804</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>54769</v>
+        <v>55741</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>91027</v>
+        <v>89006</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1093637628626237</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08341819016457955</v>
+        <v>0.08489862437396102</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1386433899262704</v>
+        <v>0.1355639619952033</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>125</v>
@@ -6461,19 +6461,19 @@
         <v>144634</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>123414</v>
+        <v>120206</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>168512</v>
+        <v>166244</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2092217773374367</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1785255428721012</v>
+        <v>0.1738861126847304</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.243762941052195</v>
+        <v>0.2404824094309402</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>190</v>
@@ -6482,19 +6482,19 @@
         <v>216437</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>189879</v>
+        <v>188955</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>244490</v>
+        <v>245374</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1605795094217461</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1408749832080758</v>
+        <v>0.1401898027215085</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1813924079117062</v>
+        <v>0.182048360680609</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>584754</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>565531</v>
+        <v>567552</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>601789</v>
+        <v>600817</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8906362371373763</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8613566100737294</v>
+        <v>0.8644360380047967</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9165818098354205</v>
+        <v>0.9151013756260395</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>521</v>
@@ -6532,19 +6532,19 @@
         <v>546660</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>522782</v>
+        <v>525050</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>567880</v>
+        <v>571088</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7907782226625633</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.756237058947805</v>
+        <v>0.7595175905690598</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8214744571278989</v>
+        <v>0.8261138873152697</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1036</v>
@@ -6553,19 +6553,19 @@
         <v>1131415</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1103362</v>
+        <v>1102478</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1157973</v>
+        <v>1158897</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.839420490578254</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8186075920882938</v>
+        <v>0.817951639319391</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.859125016791924</v>
+        <v>0.8598101972784921</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>53175</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>39567</v>
+        <v>40046</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>68397</v>
+        <v>70060</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06829654493282523</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05081973697995055</v>
+        <v>0.05143482688019362</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0878481741466237</v>
+        <v>0.08998336893561189</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>98</v>
@@ -6678,19 +6678,19 @@
         <v>119652</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>97585</v>
+        <v>99516</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>141220</v>
+        <v>143874</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1448284658296543</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1181180922973502</v>
+        <v>0.1204553745512209</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1709345649292233</v>
+        <v>0.1741459932688494</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>150</v>
@@ -6699,19 +6699,19 @@
         <v>172827</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>148165</v>
+        <v>149197</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>200249</v>
+        <v>202317</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.107697166644572</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09232878076421905</v>
+        <v>0.09297185609470121</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1247850859638633</v>
+        <v>0.1260736543435463</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>725408</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>710186</v>
+        <v>708523</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>739016</v>
+        <v>738537</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9317034550671748</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9121518258533763</v>
+        <v>0.9100166310643881</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9491802630200495</v>
+        <v>0.9485651731198064</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>657</v>
@@ -6749,19 +6749,19 @@
         <v>706515</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>684947</v>
+        <v>682293</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>728582</v>
+        <v>726651</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8551715341703456</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8290654350707767</v>
+        <v>0.8258540067311503</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8818819077026497</v>
+        <v>0.879544625448779</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1355</v>
@@ -6770,19 +6770,19 @@
         <v>1431923</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1404501</v>
+        <v>1402433</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1456585</v>
+        <v>1455553</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8923028333554279</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8752149140361363</v>
+        <v>0.8739263456564538</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9076712192357803</v>
+        <v>0.9070281439052988</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>355699</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>318976</v>
+        <v>319703</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>390235</v>
+        <v>390059</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1047915443360537</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0939726032463061</v>
+        <v>0.09418679776645994</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1149660775426758</v>
+        <v>0.1149141306645992</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>596</v>
@@ -6895,19 +6895,19 @@
         <v>689319</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>643483</v>
+        <v>640572</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>742748</v>
+        <v>742852</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1944732880956528</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1815419577025603</v>
+        <v>0.1807205435782121</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2095469474473365</v>
+        <v>0.2095764110453334</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>942</v>
@@ -6916,19 +6916,19 @@
         <v>1045018</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>986674</v>
+        <v>984030</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1105051</v>
+        <v>1104885</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1506029925651535</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1421947176966632</v>
+        <v>0.1418136772379116</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1592546838866282</v>
+        <v>0.1592307219938988</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3038651</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3004115</v>
+        <v>3004291</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3075374</v>
+        <v>3074647</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8952084556639464</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8850339224573242</v>
+        <v>0.8850858693354009</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9060273967536943</v>
+        <v>0.9058132022335401</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2742</v>
@@ -6966,19 +6966,19 @@
         <v>2855223</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2801794</v>
+        <v>2801690</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2901059</v>
+        <v>2903970</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8055267119043471</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7904530525526636</v>
+        <v>0.7904235889546668</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8184580422974397</v>
+        <v>0.8192794564217879</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5627</v>
@@ -6987,19 +6987,19 @@
         <v>5893874</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5833841</v>
+        <v>5834007</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5952218</v>
+        <v>5954862</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8493970074348465</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8407453161133719</v>
+        <v>0.8407692780061014</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8578052823033369</v>
+        <v>0.8581863227620891</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>27871</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20045</v>
+        <v>19213</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39618</v>
+        <v>38692</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.08741271738695973</v>
+        <v>0.08741271738695976</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0628669753664563</v>
+        <v>0.06025882128673854</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1242560062287658</v>
+        <v>0.1213506205108104</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>79</v>
@@ -7356,19 +7356,19 @@
         <v>42449</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34884</v>
+        <v>34375</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53553</v>
+        <v>53573</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1343060837354209</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1103725031067539</v>
+        <v>0.1087611002859701</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1694384944984163</v>
+        <v>0.1695028043022985</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>112</v>
@@ -7377,19 +7377,19 @@
         <v>70320</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>58270</v>
+        <v>58976</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>85173</v>
+        <v>86665</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1107565655973607</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09177793388262728</v>
+        <v>0.09288888715064163</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.134150834211493</v>
+        <v>0.1365009489763622</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>290974</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>279227</v>
+        <v>280153</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>298800</v>
+        <v>299632</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9125872826130403</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8757439937712342</v>
+        <v>0.8786493794891898</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9371330246335438</v>
+        <v>0.9397411787132615</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>459</v>
@@ -7427,19 +7427,19 @@
         <v>273612</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>262508</v>
+        <v>262488</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>281177</v>
+        <v>281686</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.865693916264579</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8305615055015835</v>
+        <v>0.8304971956977015</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8896274968932459</v>
+        <v>0.89123889971403</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>757</v>
@@ -7448,19 +7448,19 @@
         <v>564586</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>549733</v>
+        <v>548241</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>576636</v>
+        <v>575930</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8892434344026395</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8658491657885067</v>
+        <v>0.8634990510236378</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9082220661173726</v>
+        <v>0.9071111128493583</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>96214</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>78303</v>
+        <v>77615</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>117828</v>
+        <v>119649</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1813147390435927</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1475614212212082</v>
+        <v>0.1462640875448201</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2220466236068594</v>
+        <v>0.2254782634466344</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>199</v>
@@ -7573,19 +7573,19 @@
         <v>131610</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>115260</v>
+        <v>115431</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>149208</v>
+        <v>149336</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2408257283332839</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.210908599500346</v>
+        <v>0.2112205405201185</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2730270525731988</v>
+        <v>0.2732627590731231</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>284</v>
@@ -7594,19 +7594,19 @@
         <v>227824</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>202931</v>
+        <v>202925</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>254223</v>
+        <v>256432</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2115080085835237</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1883975810248386</v>
+        <v>0.1883922670188838</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.236016674150109</v>
+        <v>0.2380675472901254</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>434433</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>412819</v>
+        <v>410998</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>452344</v>
+        <v>453032</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8186852609564071</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7779533763931407</v>
+        <v>0.7745217365533654</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8524385787787919</v>
+        <v>0.8537359124551798</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>518</v>
@@ -7644,19 +7644,19 @@
         <v>414884</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>397286</v>
+        <v>397158</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>431234</v>
+        <v>431063</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.759174271666716</v>
+        <v>0.7591742716667161</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7269729474268019</v>
+        <v>0.726737240926877</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7890914004996548</v>
+        <v>0.7887794594798816</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>815</v>
@@ -7665,19 +7665,19 @@
         <v>849317</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>822918</v>
+        <v>820709</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>874210</v>
+        <v>874216</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7884919914164764</v>
+        <v>0.7884919914164765</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7639833258498908</v>
+        <v>0.7619324527098746</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8116024189751615</v>
+        <v>0.8116077329811165</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>44714</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34559</v>
+        <v>34487</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57012</v>
+        <v>55663</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1415024669680381</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.109366296717182</v>
+        <v>0.1091389264510857</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1804216866411259</v>
+        <v>0.1761514242174305</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>120</v>
@@ -7790,19 +7790,19 @@
         <v>65908</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>55369</v>
+        <v>55626</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>77418</v>
+        <v>78147</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.185272320751858</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1556450332224399</v>
+        <v>0.1563687540865981</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2176274295421546</v>
+        <v>0.2196776041546462</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>181</v>
@@ -7811,19 +7811,19 @@
         <v>110622</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>95277</v>
+        <v>96366</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>126878</v>
+        <v>125605</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1646822474726195</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1418376126367503</v>
+        <v>0.143459297943135</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1888822905954834</v>
+        <v>0.1869868456758901</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>271279</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>258981</v>
+        <v>260330</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>281434</v>
+        <v>281506</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8584975330319617</v>
+        <v>0.8584975330319619</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8195783133588742</v>
+        <v>0.8238485757825695</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8906337032828179</v>
+        <v>0.8908610735489144</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>415</v>
@@ -7861,19 +7861,19 @@
         <v>289829</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>278319</v>
+        <v>277590</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>300368</v>
+        <v>300111</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.814727679248142</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7823725704578456</v>
+        <v>0.7803223958453541</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8443549667775601</v>
+        <v>0.8436312459134019</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>714</v>
@@ -7882,19 +7882,19 @@
         <v>561109</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>544853</v>
+        <v>546126</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>576454</v>
+        <v>575365</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8353177525273805</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8111177094045168</v>
+        <v>0.8130131543241097</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8581623873632497</v>
+        <v>0.8565407020568647</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>70159</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53048</v>
+        <v>55136</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90125</v>
+        <v>89348</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.18831734659817</v>
+        <v>0.1883173465981701</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1423880821098716</v>
+        <v>0.1479921763175826</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2419079311311013</v>
+        <v>0.2398236499326173</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>181</v>
@@ -8007,19 +8007,19 @@
         <v>106034</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>89805</v>
+        <v>91197</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>122551</v>
+        <v>124650</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2512879559526969</v>
+        <v>0.251287955952697</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2128273000729857</v>
+        <v>0.2161273595699313</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.290431628695323</v>
+        <v>0.2954071338598546</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>245</v>
@@ -8028,19 +8028,19 @@
         <v>176193</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>153704</v>
+        <v>152382</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>200847</v>
+        <v>201608</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2217603732460827</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1934547881287324</v>
+        <v>0.19179146971841</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2527902451656755</v>
+        <v>0.2537485390323793</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>302400</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>282434</v>
+        <v>283211</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>319511</v>
+        <v>317423</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.81168265340183</v>
+        <v>0.8116826534018299</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7580920688688987</v>
+        <v>0.7601763500673825</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8576119178901285</v>
+        <v>0.8520078236824173</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>418</v>
@@ -8078,19 +8078,19 @@
         <v>315927</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>299410</v>
+        <v>297311</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>332156</v>
+        <v>330764</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7487120440473031</v>
+        <v>0.7487120440473033</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.709568371304677</v>
+        <v>0.7045928661401454</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7871726999270141</v>
+        <v>0.7838726404300688</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>645</v>
@@ -8099,19 +8099,19 @@
         <v>618327</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>593673</v>
+        <v>592912</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>640816</v>
+        <v>642138</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7782396267539173</v>
+        <v>0.7782396267539172</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7472097548343246</v>
+        <v>0.7462514609676207</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8065452118712677</v>
+        <v>0.80820853028159</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>13931</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8587</v>
+        <v>8810</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19972</v>
+        <v>20225</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06789890908655546</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04185214318064856</v>
+        <v>0.0429419104060384</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09734245543157323</v>
+        <v>0.09857697463115357</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>70</v>
@@ -8224,19 +8224,19 @@
         <v>28204</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22384</v>
+        <v>21894</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35581</v>
+        <v>35308</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.124704234678558</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0989688853100865</v>
+        <v>0.09680114399019613</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1573177139487363</v>
+        <v>0.1561110084197435</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>92</v>
@@ -8245,19 +8245,19 @@
         <v>42135</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>34544</v>
+        <v>34125</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>52844</v>
+        <v>51458</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09768421126649618</v>
+        <v>0.09768421126649619</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08008570240595075</v>
+        <v>0.07911260692216661</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1225105706095682</v>
+        <v>0.1192966945551021</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>191241</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>185200</v>
+        <v>184947</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>196585</v>
+        <v>196362</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9321010909134445</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9026575445684264</v>
+        <v>0.9014230253688466</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9581478568193513</v>
+        <v>0.9570580895939617</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>420</v>
@@ -8295,19 +8295,19 @@
         <v>197966</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>190589</v>
+        <v>190862</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>203786</v>
+        <v>204276</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.875295765321442</v>
+        <v>0.8752957653214419</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8426822860512638</v>
+        <v>0.8438889915802577</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9010311146899136</v>
+        <v>0.9031988560098042</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>676</v>
@@ -8316,19 +8316,19 @@
         <v>389207</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>378498</v>
+        <v>379884</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>396798</v>
+        <v>397217</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9023157887335037</v>
+        <v>0.9023157887335038</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.877489429390432</v>
+        <v>0.8807033054448981</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9199142975940492</v>
+        <v>0.9208873930778335</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>32817</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25596</v>
+        <v>25797</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43466</v>
+        <v>43295</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1212264643717448</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09455339745079813</v>
+        <v>0.09529468215197594</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1605654122441175</v>
+        <v>0.1599348614781257</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>107</v>
@@ -8441,19 +8441,19 @@
         <v>44281</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>36710</v>
+        <v>36507</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>53422</v>
+        <v>52941</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1678893585767317</v>
+        <v>0.1678893585767316</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1391839733502642</v>
+        <v>0.1384154259212148</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2025487107977903</v>
+        <v>0.200724685336153</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>167</v>
@@ -8462,19 +8462,19 @@
         <v>77098</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>66249</v>
+        <v>65276</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>90377</v>
+        <v>89264</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1442542209982756</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1239560425999001</v>
+        <v>0.1221347747074264</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1691004442347432</v>
+        <v>0.1670176803841516</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>237890</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>227241</v>
+        <v>227412</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>245111</v>
+        <v>244910</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8787735356282553</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8394345877558826</v>
+        <v>0.8400651385218746</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9054466025492006</v>
+        <v>0.9047053178480242</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>353</v>
@@ -8512,19 +8512,19 @@
         <v>219469</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>210328</v>
+        <v>210809</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>227040</v>
+        <v>227243</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8321106414232685</v>
+        <v>0.8321106414232682</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7974512892022095</v>
+        <v>0.7992753146638472</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8608160266497357</v>
+        <v>0.8615845740787853</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>664</v>
@@ -8533,19 +8533,19 @@
         <v>457359</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>444080</v>
+        <v>445193</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>468208</v>
+        <v>469181</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8557457790017244</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8308995557652568</v>
+        <v>0.8329823196158483</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8760439574000998</v>
+        <v>0.8778652252925736</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>103886</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>86411</v>
+        <v>83954</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>126562</v>
+        <v>125378</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1445709241976127</v>
+        <v>0.1445709241976126</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1202524917780846</v>
+        <v>0.1168324159100097</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.176127650071877</v>
+        <v>0.1744797085829195</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>266</v>
@@ -8658,19 +8658,19 @@
         <v>190045</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>168443</v>
+        <v>171749</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>211214</v>
+        <v>212734</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2461536001355832</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.218174662261934</v>
+        <v>0.2224563852829368</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2735725244949939</v>
+        <v>0.2755412979306952</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>364</v>
@@ -8679,19 +8679,19 @@
         <v>293931</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>265656</v>
+        <v>266364</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>325841</v>
+        <v>324799</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1971843023154224</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1782161645147455</v>
+        <v>0.1786911393875074</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2185913264588542</v>
+        <v>0.2178925498918724</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>614697</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>592021</v>
+        <v>593205</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>632172</v>
+        <v>634629</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8554290758023875</v>
+        <v>0.8554290758023874</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8238723499281236</v>
+        <v>0.8255202914170806</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8797475082219159</v>
+        <v>0.8831675840899903</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>694</v>
@@ -8729,19 +8729,19 @@
         <v>582012</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>560843</v>
+        <v>559323</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>603614</v>
+        <v>600308</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7538463998644166</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7264274755050061</v>
+        <v>0.7244587020693048</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7818253377380666</v>
+        <v>0.7775436147170632</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1194</v>
@@ -8750,19 +8750,19 @@
         <v>1196709</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1164799</v>
+        <v>1165841</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1224984</v>
+        <v>1224276</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8028156976845775</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7814086735411458</v>
+        <v>0.7821074501081277</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8217838354852546</v>
+        <v>0.8213088606124926</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>91410</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>75261</v>
+        <v>75281</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>110653</v>
+        <v>109488</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.114539053545557</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09430334982986277</v>
+        <v>0.09432879530945973</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1386497971746513</v>
+        <v>0.1371902662117802</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>242</v>
@@ -8875,19 +8875,19 @@
         <v>165501</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>145987</v>
+        <v>146475</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>184676</v>
+        <v>183674</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1990801313129133</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1756067609457986</v>
+        <v>0.1761932742412257</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2221453499608934</v>
+        <v>0.2209390963273813</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>345</v>
@@ -8896,19 +8896,19 @@
         <v>256912</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>234945</v>
+        <v>230839</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>287479</v>
+        <v>282174</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1576724231430697</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1441909392817977</v>
+        <v>0.1416707375520028</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1764322972478966</v>
+        <v>0.1731764096486247</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>706662</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>687419</v>
+        <v>688584</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>722811</v>
+        <v>722791</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.885460946454443</v>
+        <v>0.8854609464544428</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8613502028253485</v>
+        <v>0.8628097337882198</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9056966501701372</v>
+        <v>0.9056712046905402</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>820</v>
@@ -8946,19 +8946,19 @@
         <v>665830</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>646655</v>
+        <v>647657</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>685344</v>
+        <v>684856</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8009198686870869</v>
+        <v>0.8009198686870868</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7778546500391065</v>
+        <v>0.7790609036726189</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8243932390542014</v>
+        <v>0.8238067257587743</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1479</v>
@@ -8967,19 +8967,19 @@
         <v>1372491</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1341924</v>
+        <v>1347229</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1394458</v>
+        <v>1398564</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8423275768569303</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8235677027521033</v>
+        <v>0.8268235903513752</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8558090607182021</v>
+        <v>0.8583292624479972</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>481003</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>442495</v>
+        <v>438902</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>524917</v>
+        <v>521446</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.1362390907504479</v>
+        <v>0.1362390907504478</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1253320372372146</v>
+        <v>0.1243143634798648</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.14867744643235</v>
+        <v>0.1476942797834256</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1264</v>
@@ -9092,19 +9092,19 @@
         <v>774032</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>736143</v>
+        <v>732393</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>814877</v>
+        <v>816535</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2073173454063106</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1971689094370952</v>
+        <v>0.1961645899983037</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.21825723325394</v>
+        <v>0.2187012870297135</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1790</v>
@@ -9113,19 +9113,19 @@
         <v>1255035</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1202179</v>
+        <v>1189095</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1317873</v>
+        <v>1310263</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1727712952341451</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1654950035265162</v>
+        <v>0.1636937698425313</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1814216871521063</v>
+        <v>0.1803740377201193</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3049576</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3005662</v>
+        <v>3009133</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3088084</v>
+        <v>3091677</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.8637609092495522</v>
+        <v>0.8637609092495521</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8513225535676501</v>
+        <v>0.8523057202165749</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8746679627627857</v>
+        <v>0.8756856365201354</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4097</v>
@@ -9163,19 +9163,19 @@
         <v>2959531</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2918686</v>
+        <v>2917028</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2997420</v>
+        <v>3001170</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7926826545936895</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7817427667460599</v>
+        <v>0.7812987129702864</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8028310905629047</v>
+        <v>0.8038354100016961</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6944</v>
@@ -9184,19 +9184,19 @@
         <v>6009107</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5946269</v>
+        <v>5953879</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6061963</v>
+        <v>6075047</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.827228704765855</v>
+        <v>0.8272287047658547</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8185783128478937</v>
+        <v>0.8196259622798807</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8345049964734839</v>
+        <v>0.8363062301574687</v>
       </c>
     </row>
     <row r="30">
